--- a/public/template_stok.xlsx
+++ b/public/template_stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D5C9B-7CEA-4071-8A43-C4BFACA73877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785E76D-23F7-4765-9629-B1D699358EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="12" windowWidth="23004" windowHeight="12948" xr2:uid="{74BC1220-7DE5-4CFB-A130-BA99AD3AA8D4}"/>
   </bookViews>
@@ -91,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -412,7 +411,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,37 +424,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45582</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200</v>
+      <c r="D2" s="1">
+        <v>45588</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
